--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44257</v>
+        <v>44252</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O3" t="n">
         <v>14000</v>
       </c>
-      <c r="O3" t="n">
-        <v>15000</v>
-      </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O4" t="n">
         <v>14000</v>
       </c>
-      <c r="O4" t="n">
-        <v>15000</v>
-      </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44252</v>
+        <v>44257</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O5" t="n">
         <v>14000</v>
       </c>
-      <c r="O5" t="n">
-        <v>15000</v>
-      </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44257</v>
+        <v>44252</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O4" t="n">
         <v>14000</v>
       </c>
-      <c r="O4" t="n">
-        <v>15000</v>
-      </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44252</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O3" t="n">
         <v>14000</v>
       </c>
-      <c r="O3" t="n">
-        <v>15000</v>
-      </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O2" t="n">
         <v>14000</v>
       </c>
-      <c r="O2" t="n">
-        <v>15000</v>
-      </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O4" t="n">
         <v>14000</v>
       </c>
-      <c r="O4" t="n">
-        <v>15000</v>
-      </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O2" t="n">
         <v>14000</v>
       </c>
-      <c r="O2" t="n">
-        <v>15000</v>
-      </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44257</v>
+        <v>44252</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O3" t="n">
         <v>14000</v>
       </c>
-      <c r="O3" t="n">
-        <v>15000</v>
-      </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O4" t="n">
         <v>14000</v>
       </c>
-      <c r="O4" t="n">
-        <v>15000</v>
-      </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O3" t="n">
         <v>14000</v>
       </c>
-      <c r="O3" t="n">
-        <v>15000</v>
-      </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O5" t="n">
         <v>14000</v>
       </c>
-      <c r="O5" t="n">
-        <v>15000</v>
-      </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O2" t="n">
         <v>14000</v>
       </c>
-      <c r="O2" t="n">
-        <v>15000</v>
-      </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44252</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>44257</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O3" t="n">
         <v>14000</v>
       </c>
-      <c r="O3" t="n">
-        <v>15000</v>
-      </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O5" t="n">
         <v>14000</v>
       </c>
-      <c r="O5" t="n">
-        <v>15000</v>
-      </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44257</v>
+        <v>44252</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O4" t="n">
         <v>14000</v>
       </c>
-      <c r="O4" t="n">
-        <v>15000</v>
-      </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44252</v>
+        <v>44257</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O5" t="n">
         <v>14000</v>
       </c>
-      <c r="O5" t="n">
-        <v>15000</v>
-      </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O4" t="n">
         <v>14000</v>
       </c>
-      <c r="O4" t="n">
-        <v>15000</v>
-      </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44252</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>44252</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O5" t="n">
         <v>14000</v>
       </c>
-      <c r="O5" t="n">
-        <v>15000</v>
-      </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O2" t="n">
         <v>14000</v>
       </c>
-      <c r="O2" t="n">
-        <v>15000</v>
-      </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44252</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>44252</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O5" t="n">
         <v>14000</v>
       </c>
-      <c r="O5" t="n">
-        <v>15000</v>
-      </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O2" t="n">
         <v>14000</v>
       </c>
-      <c r="O2" t="n">
-        <v>15000</v>
-      </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44257</v>
+        <v>44252</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O4" t="n">
         <v>14000</v>
       </c>
-      <c r="O4" t="n">
-        <v>15000</v>
-      </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>45072</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,35 +760,195 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>944</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44252</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M6" t="n">
+        <v>120</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>13500</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>750</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>200</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N7" t="n">
         <v>14000</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O7" t="n">
         <v>15000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P7" t="n">
         <v>14500</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="S7" t="n">
         <v>806</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T7" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O2" t="n">
         <v>14000</v>
       </c>
-      <c r="O2" t="n">
-        <v>15000</v>
-      </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45072</v>
+        <v>44250</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>750</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44257</v>
+        <v>45072</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44250</v>
+        <v>45072</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45072</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45072</v>
+        <v>44252</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>750</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O2" t="n">
         <v>14000</v>
       </c>
-      <c r="O2" t="n">
-        <v>15000</v>
-      </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45072</v>
+        <v>44257</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45072</v>
+        <v>44250</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>45072</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>750</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O2" t="n">
         <v>14000</v>
       </c>
-      <c r="O2" t="n">
-        <v>15000</v>
-      </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45072</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45072</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>45072</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>750</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>45072</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>45072</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45072</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45072</v>
+        <v>44252</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>750</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45072</v>
+        <v>44252</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>889</v>
+        <v>750</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45072</v>
+        <v>44257</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44253</v>
+        <v>45072</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44250</v>
+        <v>45072</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>750</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45072</v>
+        <v>44252</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>889</v>
+        <v>750</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45072</v>
+        <v>44257</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45072</v>
+        <v>44250</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45072</v>
+        <v>44252</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>750</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44257</v>
+        <v>45072</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45072</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45072</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44257</v>
+        <v>45072</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>45072</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45072</v>
+        <v>44252</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>889</v>
+        <v>750</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45072</v>
+        <v>44257</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>45072</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O4" t="n">
         <v>14000</v>
       </c>
-      <c r="O4" t="n">
-        <v>15000</v>
-      </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45072</v>
+        <v>44250</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45072</v>
+        <v>44257</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45072</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44250</v>
+        <v>44257</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
         <v>14000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44257</v>
+        <v>44253</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45072</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>45072</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45072</v>
+        <v>44250</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45072</v>
+        <v>44257</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44257</v>
+        <v>45072</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44253</v>
+        <v>45072</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>14000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44257</v>
+        <v>45072</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>889</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45072</v>
+        <v>44257</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>45072</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>45072</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O4" t="n">
         <v>14000</v>
       </c>
-      <c r="O4" t="n">
-        <v>15000</v>
-      </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45072</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45072</v>
+        <v>44253</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45072</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45072</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>45072</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44253</v>
+        <v>45072</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45072</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45072</v>
+        <v>44257</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44253</v>
+        <v>45072</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44257</v>
+        <v>45072</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>45072</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44257</v>
+        <v>45072</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O5" t="n">
         <v>14000</v>
       </c>
-      <c r="O5" t="n">
-        <v>15000</v>
-      </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45072</v>
+        <v>44253</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45072</v>
+        <v>44257</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
